--- a/medicine/Psychotrope/Liste_des_ravageurs_de_la_vigne/Liste_des_ravageurs_de_la_vigne.xlsx
+++ b/medicine/Psychotrope/Liste_des_ravageurs_de_la_vigne/Liste_des_ravageurs_de_la_vigne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ravageurs de la vigne sont principalement des insectes et des acariens. Le plus célèbre est probablement le phylloxéra. Ils causent le plus souvent des dégâts directs mais certains d'entre eux sont aussi les vecteurs de maladies virales ou bactériennes.
 </t>
@@ -511,7 +523,9 @@
           <t>Arachnides</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Eotetranychus carpini (tétranyque de la vigne et du charme)
 Eriophyes vitis (acarien responsable de l'érinose de la vigne)
@@ -548,13 +562,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Diptères
-Kiefferia viticola (cécidomyie de la vigne)
+          <t>Diptères</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Kiefferia viticola (cécidomyie de la vigne)
 Contarinia viticola (cécidomyie de la vigne, cécidomyie de la grappe)
 Contarinia johnsoni  (cécidomyie de la vigne)
-Janetiella oenophila (cécidomyie des feuilles de vigne)
-Coléoptères
-Altica lythri (altise de la vigne)
+Janetiella oenophila (cécidomyie des feuilles de vigne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_ravageurs_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_ravageurs_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Coléoptères</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Altica lythri (altise de la vigne)
 Altica chalybea (altise de la vigne)
 Altica ampelophaga (altise de la vigne)
 Sinoxylon sexdentatum (apate de la vigne, grand rongeur de la vigne)
@@ -570,9 +623,43 @@
 Otiorhynchus singularis (otiorhynque de la vigne)
 Acrothinium gaschkevitchi (chrysomèle de la vigne)
 Opatrum sabulosum (opâtre des sables)
-Xylotrechus pyrrhoderus (perceur de la vigne)
-Hémiptères
-Scaphoideus titanus (cicadelle de la vigne)
+Xylotrechus pyrrhoderus (perceur de la vigne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_ravageurs_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_ravageurs_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hémiptères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Scaphoideus titanus (cicadelle de la vigne)
 Erythroneura comes (cicadelle de la vigne)
 Empoasca vitis (cicadelle des grillures de la vigne)
 Jacobiasca lybica (cicadelle africaine de la vigne)
@@ -587,9 +674,43 @@
 Phenacoccus hystrix (cochenille grise de la vigne)
 Aleurolobus taonabae (aleurode de la vigne)
 Capsodes sulcatus (Grisette de la vigne)
-Aphis illinoisensis (puceron des vignobles)
-Lépidoptères
-Argyrotaenia ljungiana (petite tordeuse de la grappe, eulia)
+Aphis illinoisensis (puceron des vignobles)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_ravageurs_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_ravageurs_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lépidoptères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Argyrotaenia ljungiana (petite tordeuse de la grappe, eulia)
 Sparganothis pilleriana (pyrale de la vigne ou tordeuse printanière de la vigne, ver de la vigne)
 Deilephila elpenor (grand sphinx de la vigne)
 Deilephila porcellus (petit sphinx de la vigne ou petit pourceau)
@@ -608,9 +729,43 @@
 Celerio lineata (sphinx commun de la vigne)
 Paranthrene regalis (sésie de la vigne)
 Stenoptilia vitis (ptérophore de la vigne)
-Desmia funeralis (plieuse de la vigne)
-Thysanoptères
-Drepanothrips reuteri (thrips de la vigne)</t>
+Desmia funeralis (plieuse de la vigne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_ravageurs_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_ravageurs_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Thysanoptères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Drepanothrips reuteri (thrips de la vigne)</t>
         </is>
       </c>
     </row>
